--- a/data/bpm.xlsx
+++ b/data/bpm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dc9a4b3fab6b0ac/Documents/UIUC/CS416/nba-viz/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{DB3669EB-B9F9-4EAB-B468-20D0FA519B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E06EA55-A0FA-46E6-97C9-C8D5933B3D2D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{DB3669EB-B9F9-4EAB-B468-20D0FA519B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1E4302-D8D9-4E91-9CF0-86B8E150BDF3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F25A6473-C80F-4FC8-A0CD-5E277A40ACAB}"/>
+    <workbookView xWindow="-16297" yWindow="-6067" windowWidth="16395" windowHeight="28394" xr2:uid="{F25A6473-C80F-4FC8-A0CD-5E277A40ACAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -599,13 +599,13 @@
     <t>Luka Doncic</t>
   </si>
   <si>
-    <t>Nikola Jokc</t>
-  </si>
-  <si>
     <t>BPM</t>
   </si>
   <si>
     <t>player</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
   </si>
 </sst>
 </file>
@@ -1170,6 +1170,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1490,7 +1494,7 @@
   <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,10 +1511,10 @@
         <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1527,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2">
         <v>13.2</v>
